--- a/Hardware/PrintListe.xlsx
+++ b/Hardware/PrintListe.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="35120" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="3520" yWindow="3140" windowWidth="18740" windowHeight="20560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -371,19 +371,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="45.1640625" customWidth="1"/>
-    <col min="7" max="7" width="43.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,8 +405,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -416,8 +419,18 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>300</v>
+      </c>
+      <c r="J2">
+        <v>33</v>
+      </c>
+      <c r="K2">
+        <f>4096*J2/(I2+J2)</f>
+        <v>405.90990990990991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -430,8 +443,18 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>30</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K8" si="0">4096*J3/(I3+J3)</f>
+        <v>1170.2857142857142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -444,8 +467,18 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>1755.4285714285713</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -458,8 +491,18 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>7.5</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>2340.5714285714284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -472,8 +515,18 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>2925.7142857142858</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -486,8 +539,18 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>3510.8571428571427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -500,8 +563,15 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -512,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -526,7 +596,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -543,7 +613,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -560,7 +630,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -577,7 +647,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -594,7 +664,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -611,7 +681,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
